--- a/AzentioAutomationFramework_FMS_Ajith/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/IISTestData.xlsx
@@ -12,14 +12,16 @@
     <sheet name="IIS_Login" sheetId="28" r:id="rId3"/>
     <sheet name="IISParam_login" sheetId="27" r:id="rId4"/>
     <sheet name="IncidentalChargesTestData" sheetId="26" r:id="rId5"/>
-    <sheet name="TestExecution" sheetId="9" r:id="rId6"/>
+    <sheet name="Settlement" sheetId="30" r:id="rId6"/>
+    <sheet name="PenaltyTestData" sheetId="29" r:id="rId7"/>
+    <sheet name="TestExecution" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -184,9 +186,6 @@
     <t>Party Value</t>
   </si>
   <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
     <t>Product Class</t>
   </si>
   <si>
@@ -296,6 +295,108 @@
   </si>
   <si>
     <t>FirstSettlement</t>
+  </si>
+  <si>
+    <t>AT_PNLT_017</t>
+  </si>
+  <si>
+    <t>AT_PNLT_017_D1</t>
+  </si>
+  <si>
+    <t>Penalty Type</t>
+  </si>
+  <si>
+    <t>Annual Percentage on Outstanding Installment Amount</t>
+  </si>
+  <si>
+    <t>AT_PNLT_018</t>
+  </si>
+  <si>
+    <t>AT_PNLT_018_D1</t>
+  </si>
+  <si>
+    <t>AT_PNLT_020</t>
+  </si>
+  <si>
+    <t>AT_PNLT_020_D1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AT_PNLT_019</t>
+  </si>
+  <si>
+    <t>AT_PNLT_019_D1</t>
+  </si>
+  <si>
+    <t>AmountReceivedFromParty</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_185</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_185_D1</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_186</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_186_D1</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_187</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_188</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_189</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_187_D1</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_188_D1</t>
+  </si>
+  <si>
+    <t>AT_SETLMNT_189_D1</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>5760</t>
+  </si>
+  <si>
+    <t>5761</t>
+  </si>
+  <si>
+    <t>5762</t>
+  </si>
+  <si>
+    <t>5763</t>
+  </si>
+  <si>
+    <t>5764</t>
+  </si>
+  <si>
+    <t>5765</t>
+  </si>
+  <si>
+    <t>5766</t>
+  </si>
+  <si>
+    <t>5767</t>
+  </si>
+  <si>
+    <t>5768</t>
+  </si>
+  <si>
+    <t>5770</t>
+  </si>
+  <si>
+    <t>5771</t>
   </si>
 </sst>
 </file>
@@ -465,19 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -503,6 +591,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -519,7 +620,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -536,23 +637,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -583,18 +675,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ConditionalStyle_5f_1" xfId="6"/>
@@ -934,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,10 +1067,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="137.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="137.7109375" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="42.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="137.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1020,693 +1137,693 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12.7109375" style="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="34.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="32.28515625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="30" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="10.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="34.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="34.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>130741</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="31">
         <v>1166871</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <v>128350</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="31">
         <v>128362</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>128365</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="29"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="29"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="29"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="29"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="29"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="29"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="29"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="29"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="29"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="29"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="29"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="29"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="29"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="29"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="29"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="29"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="29"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="29"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="29"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="29"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="29"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="29"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="29"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="29"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="29"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="29"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="29"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="29"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="29"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="29"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="29"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="29"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="29"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="29"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="29"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="29"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="29"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="29"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="29"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="29"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="29"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="29"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="29"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="29"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="5.1772" bottom="5.1772" header="4.9802999999999997" footer="4.9802999999999997"/>
@@ -1724,232 +1841,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="42" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="36" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="36" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="36" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="36" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="37">
         <v>123</v>
       </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43">
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="B3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="37">
         <v>321</v>
       </c>
-      <c r="D3" s="43">
-        <v>1</v>
-      </c>
-      <c r="E3" s="43">
+      <c r="D3" s="37">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37">
+        <v>321</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="37">
         <v>321</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="37">
         <v>321</v>
       </c>
-      <c r="D5" s="43">
-        <v>1</v>
-      </c>
-      <c r="E5" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="D6" s="37">
+        <v>1</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="43">
+      <c r="B7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="37">
         <v>321</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
+      <c r="D7" s="37">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="43">
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37">
         <v>321</v>
       </c>
-      <c r="D7" s="43">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="43">
+      <c r="B9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="37">
         <v>321</v>
       </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="B10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="37">
         <v>321</v>
       </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43" t="s">
+      <c r="D10" s="37">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="B11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="37">
         <v>321</v>
       </c>
-      <c r="D10" s="43">
-        <v>1</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="43" t="s">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="43">
+      <c r="B12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="37">
         <v>321</v>
       </c>
-      <c r="D11" s="43">
-        <v>1</v>
-      </c>
-      <c r="E11" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="43" t="s">
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="B13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37">
         <v>321</v>
       </c>
-      <c r="D12" s="43">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="43">
-        <v>321</v>
-      </c>
-      <c r="D13" s="43">
-        <v>1</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1969,232 +2086,232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="42" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="42" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="36" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="36" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="36" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="36" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="37">
         <v>123</v>
       </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43">
+      <c r="D2" s="37">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="37">
+        <v>321</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="43">
+      <c r="B4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37">
         <v>321</v>
       </c>
-      <c r="D3" s="43">
-        <v>1</v>
-      </c>
-      <c r="E3" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="D4" s="37">
+        <v>1</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="43">
+      <c r="B5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="37">
         <v>321</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="D5" s="37">
+        <v>1</v>
+      </c>
+      <c r="E5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="37">
         <v>321</v>
       </c>
-      <c r="D5" s="43">
-        <v>1</v>
-      </c>
-      <c r="E5" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="D6" s="37">
+        <v>1</v>
+      </c>
+      <c r="E6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="43">
+      <c r="B7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="37">
         <v>321</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="D7" s="37">
+        <v>1</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="43">
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37">
         <v>321</v>
       </c>
-      <c r="D7" s="43">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="D8" s="37">
+        <v>1</v>
+      </c>
+      <c r="E8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="43">
+      <c r="B9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="37">
         <v>321</v>
       </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="43" t="s">
+      <c r="D9" s="37">
+        <v>1</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="43">
+      <c r="B10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="37">
         <v>321</v>
       </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="D10" s="37">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="43">
+      <c r="B11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="37">
         <v>321</v>
       </c>
-      <c r="D10" s="43">
-        <v>1</v>
-      </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="43">
+      <c r="B12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="37">
         <v>321</v>
       </c>
-      <c r="D11" s="43">
-        <v>1</v>
-      </c>
-      <c r="E11" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="43">
+      <c r="B13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37">
         <v>321</v>
       </c>
-      <c r="D12" s="43">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="43">
-        <v>321</v>
-      </c>
-      <c r="D13" s="43">
-        <v>1</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="D13" s="37">
+        <v>1</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2209,105 +2326,105 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="22"/>
+      <c r="H1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="17">
+        <v>727</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17">
+        <v>100</v>
+      </c>
+      <c r="F2" s="17">
+        <v>10500</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="20">
-        <v>727</v>
-      </c>
-      <c r="D2" s="20">
-        <v>3</v>
-      </c>
-      <c r="E2" s="20">
-        <v>100</v>
-      </c>
-      <c r="F2" s="20">
-        <v>10500</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2316,51 +2433,374 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.23828125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="49">
+        <v>727</v>
+      </c>
+      <c r="D2" s="49">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49">
+        <v>1155</v>
+      </c>
+      <c r="F2" s="49">
+        <v>350000</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="49">
+        <v>727</v>
+      </c>
+      <c r="D3" s="49">
+        <v>3</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1155</v>
+      </c>
+      <c r="F3" s="49">
+        <v>350000</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="49">
+        <v>727</v>
+      </c>
+      <c r="D4" s="49">
+        <v>3</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1155</v>
+      </c>
+      <c r="F4" s="49">
+        <v>350000</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="49">
+        <v>727</v>
+      </c>
+      <c r="D5" s="49">
+        <v>3</v>
+      </c>
+      <c r="E5" s="49">
+        <v>1155</v>
+      </c>
+      <c r="F5" s="49">
+        <v>350000</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="49">
+        <v>727</v>
+      </c>
+      <c r="D6" s="49">
+        <v>3</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1155</v>
+      </c>
+      <c r="F6" s="49">
+        <v>350000</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17">
+        <v>727</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1155</v>
+      </c>
+      <c r="G4" s="17">
+        <v>350000</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
+        <v>727</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1155</v>
+      </c>
+      <c r="G5" s="17">
+        <v>350000</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.28515625" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.140625" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="29.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.5703125" style="11" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.28515625" style="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="44.7109375" style="11" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="11" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="11" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="16.140625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="11" width="29.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="11" width="31.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="30.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="11" width="29.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="28.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="11" width="44.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -2368,95 +2808,215 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="46">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="46">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="46">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="46">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="46">
+        <v>6</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="46">
+        <v>7</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="46">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="46"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(ISERROR(SEARCH("No",#REF!)))</formula>
     </cfRule>
@@ -2465,11 +3025,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="9.309099999999999" bottom="9.309099999999999" header="9.1121999999999996" footer="9.1121999999999996"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>